--- a/docs/StructureDefinition-MedicationAdministration.xlsx
+++ b/docs/StructureDefinition-MedicationAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T21:33:26+08:00</t>
+    <t>2022-08-03T14:01:00+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationAdministration.xlsx
+++ b/docs/StructureDefinition-MedicationAdministration.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MITW-MedicationAdministration</t>
+    <t>MedicationAdministration-MITW</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:01:00+08:00</t>
+    <t>2022-08-07T11:52:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationAdministration.xlsx
+++ b/docs/StructureDefinition-MedicationAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-07T11:52:30+08:00</t>
+    <t>2022-08-27T12:17:33+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationAdministration.xlsx
+++ b/docs/StructureDefinition-MedicationAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T12:17:33+08:00</t>
+    <t>2022-08-27T19:57:01+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationAdministration.xlsx
+++ b/docs/StructureDefinition-MedicationAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T19:57:01+08:00</t>
+    <t>2022-09-25T15:07:05+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationAdministration.xlsx
+++ b/docs/StructureDefinition-MedicationAdministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1085,7 +1085,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://mtrsoftware.com.tw/Page_L/用法表.htm</t>
+    <t>http://hitstdio.ntunhs.edu.tw/ig/twcore/ValueSet-medication-path-tw.html</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
